--- a/biology/Zoologie/Coucou_de_Heinrich/Coucou_de_Heinrich.xlsx
+++ b/biology/Zoologie/Coucou_de_Heinrich/Coucou_de_Heinrich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacomantis aeruginosus
 Le Coucou de Heinrich (Cacomantis aeruginosus syn. C. heinrichi) est une espèce d'oiseaux de la famille des Cuculidae, endémique d'Indonésie (Moluques).
@@ -512,12 +524,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le Coucou de Heinrich (alors C. heinrichi) était considéré comme un taxon monotypique, possiblement conspécifique avec le Coucou des buissons (Cacomantis variolosus) (Payne[1] 2005 et Collar[2] 2007).
-Des études vocales et morphologiques le lient à la sous-espèce Cacomantis sepulcralis aeruginosus du Coucou à ventre roux[3]. Dans sa classification de référence 3.4 (2013), le Congrès ornithologique international fait de C. heinrichi et C. s. aeruginosus les deux sous-espèces d'une nouvelle espèce qui prend le nom scientifique de Cacomantis aeruginosus[4]
-Sous-espèces
-D'après le Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coucou de Heinrich (alors C. heinrichi) était considéré comme un taxon monotypique, possiblement conspécifique avec le Coucou des buissons (Cacomantis variolosus) (Payne 2005 et Collar 2007).
+Des études vocales et morphologiques le lient à la sous-espèce Cacomantis sepulcralis aeruginosus du Coucou à ventre roux. Dans sa classification de référence 3.4 (2013), le Congrès ornithologique international fait de C. heinrichi et C. s. aeruginosus les deux sous-espèces d'une nouvelle espèce qui prend le nom scientifique de Cacomantis aeruginosus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coucou_de_Heinrich</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coucou_de_Heinrich</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après le Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
 C. a. aeruginosus  Salvadori, 1878 ;
 C. a. heinrichi  Stresemann, 1931.</t>
         </is>
